--- a/ARPES/tabular-to-yaml/mpes-nexus_mp_reviewed_new.xlsx
+++ b/ARPES/tabular-to-yaml/mpes-nexus_mp_reviewed_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="784" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="784"/>
   </bookViews>
   <sheets>
     <sheet name="NXentry" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="NXmonochromator" sheetId="7" r:id="rId6"/>
     <sheet name="NXpositioner" sheetId="8" r:id="rId7"/>
     <sheet name="NXelectronanalyser" sheetId="19" r:id="rId8"/>
-    <sheet name="NXcollectionlens" sheetId="9" r:id="rId9"/>
+    <sheet name="NXcollectioncolumn" sheetId="9" r:id="rId9"/>
     <sheet name="NXenergydispersion" sheetId="10" r:id="rId10"/>
     <sheet name="NXspindispersion" sheetId="11" r:id="rId11"/>
     <sheet name="NXdetector" sheetId="12" r:id="rId12"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="677">
   <si>
     <t>Name</t>
   </si>
@@ -1171,9 +1171,6 @@
     <t>Distance between sample and detector entrance</t>
   </si>
   <si>
-    <t>lens_mode</t>
-  </si>
-  <si>
     <t>Labelling of a standard lens setting</t>
   </si>
   <si>
@@ -2068,12 +2065,6 @@
     </r>
   </si>
   <si>
-    <t>other_converts</t>
-  </si>
-  <si>
-    <t>Conversion factors between other measured and physical axes.</t>
-  </si>
-  <si>
     <t>applied</t>
   </si>
   <si>
@@ -2211,10 +2202,10 @@
     </r>
   </si>
   <si>
-    <t>x_translation</t>
-  </si>
-  <si>
-    <t>Horizontal translation</t>
+    <t>new_centre</t>
+  </si>
+  <si>
+    <t>Coordinates of the new symmetry centre point.</t>
   </si>
   <si>
     <r>
@@ -2227,14 +2218,14 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>NXregistration:x_translation</t>
-    </r>
-  </si>
-  <si>
-    <t>y_translation</t>
-  </si>
-  <si>
-    <t>Vertical translation</t>
+      <t>NXregistration:new_centre</t>
+    </r>
+  </si>
+  <si>
+    <t>rotation_centre</t>
+  </si>
+  <si>
+    <t>Coordinates of the rotation centre.</t>
   </si>
   <si>
     <r>
@@ -2247,14 +2238,14 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>NXregistration:y_translation</t>
-    </r>
-  </si>
-  <si>
-    <t>new_centre</t>
-  </si>
-  <si>
-    <t>Coordinates of the new symmetry centre point.</t>
+      <t>NXregistration:rotation_centre</t>
+    </r>
+  </si>
+  <si>
+    <t>scaling</t>
+  </si>
+  <si>
+    <t>Scaling factor to compensate shrinking from distortion correction.</t>
   </si>
   <si>
     <r>
@@ -2267,14 +2258,11 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>NXregistration:new_centre</t>
-    </r>
-  </si>
-  <si>
-    <t>rotation_centre</t>
-  </si>
-  <si>
-    <t>Coordinates of the rotation centre.</t>
+      <t>NXregistration:scaling</t>
+    </r>
+  </si>
+  <si>
+    <t>Has the calibration been applied?</t>
   </si>
   <si>
     <r>
@@ -2287,14 +2275,14 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>NXregistration:rotation_centre</t>
-    </r>
-  </si>
-  <si>
-    <t>rotation_angle</t>
-  </si>
-  <si>
-    <t>Angle of rotation</t>
+      <t>NXcalibration:applied</t>
+    </r>
+  </si>
+  <si>
+    <t>coefficients</t>
+  </si>
+  <si>
+    <t>Array of coefficients of the calibration function for non linear calibration</t>
   </si>
   <si>
     <r>
@@ -2307,14 +2295,14 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>NXregistration:rotation_angle</t>
-    </r>
-  </si>
-  <si>
-    <t>scaling</t>
-  </si>
-  <si>
-    <t>Scaling factor to compensate shrinking from distortion correction.</t>
+      <t>NXcalibration:coefficients</t>
+    </r>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>Array of position of features along the axis to be calibrated</t>
   </si>
   <si>
     <r>
@@ -2327,11 +2315,14 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>NXregistration:scaling</t>
-    </r>
-  </si>
-  <si>
-    <t>Has the calibration been applied?</t>
+      <t>NXcalibration:features</t>
+    </r>
+  </si>
+  <si>
+    <t>destinations</t>
+  </si>
+  <si>
+    <t>Array of destinations in the calibrated axis</t>
   </si>
   <si>
     <r>
@@ -2344,14 +2335,14 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>NXcalibration:applied</t>
-    </r>
-  </si>
-  <si>
-    <t>coefficients</t>
-  </si>
-  <si>
-    <t>Array of coefficients of the calibration function for non linear calibration</t>
+      <t>NXcalibration:destinations</t>
+    </r>
+  </si>
+  <si>
+    <t>files</t>
+  </si>
+  <si>
+    <t>Files used for the calibration</t>
   </si>
   <si>
     <r>
@@ -2364,14 +2355,11 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>NXcalibration:coefficients</t>
-    </r>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>Array of position of features along the axis to be calibrated</t>
+      <t>NXcalibration:files</t>
+    </r>
+  </si>
+  <si>
+    <t>Scaling parameter for linear calibration</t>
   </si>
   <si>
     <r>
@@ -2384,14 +2372,14 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>NXcalibration:features</t>
-    </r>
-  </si>
-  <si>
-    <t>destinations</t>
-  </si>
-  <si>
-    <t>Array of destinations in the calibrated axis</t>
+      <t>NXcalibration:scaling</t>
+    </r>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>Offset parameter for linear calibration</t>
   </si>
   <si>
     <r>
@@ -2404,63 +2392,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>NXcalibration:destinations</t>
-    </r>
-  </si>
-  <si>
-    <t>files</t>
-  </si>
-  <si>
-    <t>Files used for the calibration</t>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXprocess:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NXcalibration:files</t>
-    </r>
-  </si>
-  <si>
-    <t>Scaling parameter for linear calibration</t>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXprocess:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NXcalibration:scaling</t>
-    </r>
-  </si>
-  <si>
-    <t>offset</t>
-  </si>
-  <si>
-    <t>Offset parameter for linear calibration</t>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXprocess:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>NXcalibration:offset</t>
     </r>
   </si>
@@ -2618,20 +2549,6 @@
   </si>
   <si>
     <r>
-      <t>NXentry:NXprocess:NXdetector:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>other_converts</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>NXentry:NXinstrument:</t>
     </r>
     <r>
@@ -2683,6 +2600,947 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>NXelectronanalyser:NXcollectionlens:lens_names</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NXelectronanalyser:NXcollectionlens:lens_voltages</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NXelectronanalyser:NXcollectionlens:projection</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NXelectronanalyser:NXcollectionlens:magnification</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NXelectronanalyser:NXcollectionlens:field_aperture</t>
+    </r>
+  </si>
+  <si>
+    <t>contrast_aperture</t>
+  </si>
+  <si>
+    <t>NXaperture</t>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NXelectronanalyser:NXcollectionlens:contrast_aperture</t>
+    </r>
+  </si>
+  <si>
+    <t>The size and position of the field aperture inserted in the column</t>
+  </si>
+  <si>
+    <t>The size and postion of the contrast aperture inserted in the column.</t>
+  </si>
+  <si>
+    <t>scheme</t>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:NXelectronanalyser:NXenergydispersion:scheme</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:NXelectronanalyser:NXenergydispersion:pass_energy</t>
+    </r>
+  </si>
+  <si>
+    <t>entrance_slit</t>
+  </si>
+  <si>
+    <t>exit_slit</t>
+  </si>
+  <si>
+    <t>Size, position and shape of the entrance slits in dispersive analyzers</t>
+  </si>
+  <si>
+    <t>Size, position and shape of the exit slits in dispersive analyzer</t>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NXelectronanalyser:NXenergydispersion:center_energy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NXelectronanalyser:NXenergydispersion:exit_slit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NXelectronanalyser:NXenergydispersion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>diameter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NXelectronanalyser:NXenergydispersion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>entrance_slit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NXelectronanalyser:NXenergydispersion:tof_distance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:NXelectronanalyser:NXspindispersion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spin_filter_type</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:NXelectronanalyser:NXspindispersion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spin_filter_FoM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:NXelectronanalyser:NXspindispersion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spin_filter_shermann_function</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:NXelectronanalyser:NXspindispersion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spin_scattering_energy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:NXelectronanalyser:NXspindispersion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spin_scattering_angle</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:NXelectronanalyser:NXspindispersion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spin_target</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:NXelectronanalyser:NXspindispersion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spin_target_preparation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:NXelectronanalyser:NXspindispersion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spin_target_preparation_date</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NXelectronanaliser:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NXdetector:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>amplifier_type</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NXelectronanaliser:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NXdetector:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>detector_type</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NXelectronanaliser:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NXdetector:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>detector_voltage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NXelectronanaliser:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NXdetector:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sensor_size</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NXelectronanaliser:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NXdetector:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sensor_count</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NXelectronanaliser:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NXdetector:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sensor_pixel_size</t>
+    </r>
+  </si>
+  <si>
+    <t>Physical state of the sample</t>
+  </si>
+  <si>
+    <t>bias</t>
+  </si>
+  <si>
+    <t>NXentry:NXsample:magnetic_field</t>
+  </si>
+  <si>
+    <t>incident_energy</t>
+  </si>
+  <si>
+    <t>NXentry:NXinstrument:NXbeam:incident_energy</t>
+  </si>
+  <si>
+    <t>incident_polarization</t>
+  </si>
+  <si>
+    <t>NXentry:NXinstrument:NXbeam:incident_polarization</t>
+  </si>
+  <si>
+    <t>extent</t>
+  </si>
+  <si>
+    <t>beam size vector</t>
+  </si>
+  <si>
+    <t>NXentry:NXinstrument:NXbeam:extent</t>
+  </si>
+  <si>
+    <t>flux incident on beam plane area</t>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:NXbeam:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>flux</t>
+    </r>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Dim</t>
+  </si>
+  <si>
+    <t>[1,4]</t>
+  </si>
+  <si>
+    <t>[1,2]</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>Average source power</t>
+  </si>
+  <si>
+    <t>NXentry:NXinstrument:NXsource:power</t>
+  </si>
+  <si>
+    <t>[1,nl]</t>
+  </si>
+  <si>
+    <t>[1,nfa]</t>
+  </si>
+  <si>
+    <t>[1,nsa]</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>Vector determining the direction of the electric field</t>
+  </si>
+  <si>
+    <t>Vector determining the direction of the magnetic field</t>
+  </si>
+  <si>
+    <t>Vector determining the direction of the stress field</t>
+  </si>
+  <si>
+    <t>[1,3]</t>
+  </si>
+  <si>
+    <t>[1,nkx]</t>
+  </si>
+  <si>
+    <t>[1,nky]</t>
+  </si>
+  <si>
+    <t>[1,ne]</t>
+  </si>
+  <si>
+    <t>[1,ntpp]</t>
+  </si>
+  <si>
+    <t>[1,nkx],[1,nkx]</t>
+  </si>
+  <si>
+    <t>[1,nky],[1,nky]</t>
+  </si>
+  <si>
+    <t>[1,ne],[1,ne]</t>
+  </si>
+  <si>
+    <t>[1,ntpp],[1,ntpp]</t>
+  </si>
+  <si>
+    <t>[1,nx],[1,nx]</t>
+  </si>
+  <si>
+    <t>[ndx,ndy]</t>
+  </si>
+  <si>
+    <t>[2,nsym]</t>
+  </si>
+  <si>
+    <t>[1,ncoeff]</t>
+  </si>
+  <si>
+    <t>[1,nfeat]</t>
+  </si>
+  <si>
+    <t>NXentry:NXsample:magnetic_field:\@direction</t>
+  </si>
+  <si>
+    <t>NXentry:NXsample:electric_field:\@direction</t>
+  </si>
+  <si>
+    <t>NXentry:NXinstrument:name:\@short_name</t>
+  </si>
+  <si>
+    <t>Incident polarization as a Stokes vector</t>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NXelectronanalyser:name:\@short_name</t>
+    </r>
+  </si>
+  <si>
+    <t>experiment_ title</t>
+  </si>
+  <si>
+    <t>NX _DATE_TIME</t>
+  </si>
+  <si>
+    <t>tof, hemispherical, cylindrical, mirror, retarding grid, etc.</t>
+  </si>
+  <si>
+    <t>fixed or sweep</t>
+  </si>
+  <si>
+    <t>Number of layers of the sample (e.g. bulk, monolayer, pentalayer, etc.)</t>
+  </si>
+  <si>
+    <t>Gases might be fluxed on the surface for various reasons. Chemical designation, or residual.</t>
+  </si>
+  <si>
+    <t>E.g. UHV cleave, sputtering and annealing, etc.</t>
+  </si>
+  <si>
+    <t>NXentry:NXsample:magnetic_field:\@direction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of the axes that are acquired, in order of decreasing speed. For example energy in a swept scan or spin. </t>
+  </si>
+  <si>
+    <t>The space projected in the angularly dispersive directions, real or reciprocal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of spin detector, VLEED, SPLEED, Mott, etc. </t>
+  </si>
+  <si>
+    <t>Effective Shermann function, calibrated spin selectivity factor</t>
+  </si>
+  <si>
+    <t>Type of electron amplifier, MCP, channeltron, etc.</t>
+  </si>
+  <si>
+    <t>Description of the detector type, DLD, Phosphor+CCD, CMOS.</t>
+  </si>
+  <si>
+    <t>CAS registry number of the sample chemical content.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of manipulator, Hexapod, Rod, etc. </t>
+  </si>
+  <si>
+    <t>incident_energy_spread</t>
+  </si>
+  <si>
+    <t>FWHM energy linewidth of the incident photons.</t>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:NXbeam:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>incident_energy_spread</t>
+    </r>
+  </si>
+  <si>
+    <t>NX_NUMBER:NX_ENERGY</t>
+  </si>
+  <si>
+    <t>incident_wavelength</t>
+  </si>
+  <si>
+    <t>The center wavelength energy at sample</t>
+  </si>
+  <si>
+    <t>NXentry:NXinstrument:NXbeam:incident_wavelength</t>
+  </si>
+  <si>
+    <t>incident_wavelength_spread</t>
+  </si>
+  <si>
+    <t>FWHM wavelength linewidth of the incident photons.</t>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:NXbeam:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>incident_wavelength_spread</t>
+    </r>
+  </si>
+  <si>
+    <t>NX_NUMBER:NX_WAVELENGTH</t>
+  </si>
+  <si>
+    <t>Overall momentum resolution (FWHM)</t>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NXelectronanalyser:momentum_resolution</t>
+    </r>
+  </si>
+  <si>
+    <t>NX_FLOAT:NX_WAVEVECTOR</t>
+  </si>
+  <si>
+    <t>energy_resolution</t>
+  </si>
+  <si>
+    <t>momentum_resolution</t>
+  </si>
+  <si>
+    <t>spatial_resolution</t>
+  </si>
+  <si>
+    <t>Scheme of the electron collection lens, i.e. standard, deflector, PEEM, momentum microscope, etc.</t>
+  </si>
+  <si>
+    <t>NXentry:NXinstrument:NXelectronanalyser:NXcollectionlens:scheme</t>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:NXelectronanalyser:NXenergydispersion:energy_scan_mode</t>
+    </r>
+  </si>
+  <si>
+    <t>sensor_pixels</t>
+  </si>
+  <si>
+    <t>Number of raw active elements in each dimension. Important for swept scans.</t>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NXelectronanaliser:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NXdetector:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sensor_pixels</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Free text description of the type of the detector </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description of the type of aperture, i.e. slit, pinhole, iris </t>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NXaperture:description</t>
+    </r>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>Shape of the aperture, i.e. straight or curved for slits, circle, square hexagon, octagon, bladed for pinholes and irises.</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>The relevant dimension for the aperture, i.e. slit width, pinhole and iris diameter</t>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:NXaperture:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shape</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:NXaperture:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>size</t>
+    </r>
+  </si>
+  <si>
+    <t>NX_NUMBER:NX_LENGTH</t>
+  </si>
+  <si>
+    <r>
+      <t>NXentry:NXinstrument:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>NXelectronanalyser:NXcollectionlens:</t>
     </r>
     <r>
@@ -2692,8 +3550,14 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>lens_mode</t>
-    </r>
+      <t>mode</t>
+    </r>
+  </si>
+  <si>
+    <t>amplifier_voltage</t>
+  </si>
+  <si>
+    <t>Voltage applied to the amplifier.</t>
   </si>
   <si>
     <r>
@@ -2706,8 +3570,32 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>NXelectronanalyser:NXcollectionlens:lens_names</t>
-    </r>
+      <t>NXelectronanaliser:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NXdetector:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>amplifier_voltage</t>
+    </r>
+  </si>
+  <si>
+    <t>amplifier_bias</t>
+  </si>
+  <si>
+    <t>The low voltage of the amplifier migh not be the ground.</t>
   </si>
   <si>
     <r>
@@ -2720,160 +3608,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>NXelectronanalyser:NXcollectionlens:lens_voltages</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NXelectronanalyser:NXcollectionlens:projection</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NXelectronanalyser:NXcollectionlens:magnification</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NXelectronanalyser:NXcollectionlens:field_aperture</t>
-    </r>
-  </si>
-  <si>
-    <t>contrast_aperture</t>
-  </si>
-  <si>
-    <t>NXaperture</t>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NXelectronanalyser:NXcollectionlens:contrast_aperture</t>
-    </r>
-  </si>
-  <si>
-    <t>The size and position of the field aperture inserted in the column</t>
-  </si>
-  <si>
-    <t>The size and postion of the contrast aperture inserted in the column.</t>
-  </si>
-  <si>
-    <t>scheme</t>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:NXelectronanalyser:NXenergydispersion:scheme</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:NXelectronanalyser:NXenergydispersion:pass_energy</t>
-    </r>
-  </si>
-  <si>
-    <t>entrance_slit</t>
-  </si>
-  <si>
-    <t>exit_slit</t>
-  </si>
-  <si>
-    <t>Size, position and shape of the entrance slits in dispersive analyzers</t>
-  </si>
-  <si>
-    <t>Size, position and shape of the exit slits in dispersive analyzer</t>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NXelectronanalyser:NXenergydispersion:center_energy</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NXelectronanalyser:NXenergydispersion:exit_slit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NXelectronanalyser:NXenergydispersion:</t>
+      <t>NXelectronanaliser:</t>
     </r>
     <r>
       <rPr>
@@ -2882,177 +3617,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>diameter</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NXelectronanalyser:NXenergydispersion:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>entrance_slit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NXelectronanalyser:NXenergydispersion:tof_distance</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:NXelectronanalyser:NXspindispersion:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>spin_filter_type</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:NXelectronanalyser:NXspindispersion:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>spin_filter_FoM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:NXelectronanalyser:NXspindispersion:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>spin_filter_shermann_function</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:NXelectronanalyser:NXspindispersion:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>spin_scattering_energy</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:NXelectronanalyser:NXspindispersion:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>spin_scattering_angle</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:NXelectronanalyser:NXspindispersion:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>spin_target</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:NXelectronanalyser:NXspindispersion:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>spin_target_preparation</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:NXelectronanalyser:NXspindispersion:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>spin_target_preparation_date</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NXelectronanaliser:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>NXdetector:</t>
     </r>
     <r>
@@ -3062,579 +3626,173 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>amplifier_type</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NXelectronanaliser:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NXdetector:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>detector_type</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NXelectronanaliser:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NXdetector:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>detector_voltage</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NXelectronanaliser:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NXdetector:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>sensor_size</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NXelectronanaliser:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NXdetector:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>sensor_count</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NXelectronanaliser:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NXdetector:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>sensor_pixel_size</t>
-    </r>
-  </si>
-  <si>
-    <t>Physical state of the sample</t>
-  </si>
-  <si>
-    <t>bias</t>
-  </si>
-  <si>
-    <t>NXentry:NXsample:magnetic_field</t>
-  </si>
-  <si>
-    <t>incident_energy</t>
-  </si>
-  <si>
-    <t>NXentry:NXinstrument:NXbeam:incident_energy</t>
-  </si>
-  <si>
-    <t>incident_polarization</t>
-  </si>
-  <si>
-    <t>NXentry:NXinstrument:NXbeam:incident_polarization</t>
-  </si>
-  <si>
-    <t>extent</t>
-  </si>
-  <si>
-    <t>beam size vector</t>
-  </si>
-  <si>
-    <t>NXentry:NXinstrument:NXbeam:extent</t>
-  </si>
-  <si>
-    <t>flux incident on beam plane area</t>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:NXbeam:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>flux</t>
-    </r>
-  </si>
-  <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>Dim</t>
-  </si>
-  <si>
-    <t>[1,4]</t>
-  </si>
-  <si>
-    <t>[1,2]</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>Average source power</t>
-  </si>
-  <si>
-    <t>NXentry:NXinstrument:NXsource:power</t>
-  </si>
-  <si>
-    <t>[1,nl]</t>
-  </si>
-  <si>
-    <t>[1,nfa]</t>
-  </si>
-  <si>
-    <t>[1,nsa]</t>
-  </si>
-  <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>Vector determining the direction of the electric field</t>
-  </si>
-  <si>
-    <t>Vector determining the direction of the magnetic field</t>
-  </si>
-  <si>
-    <t>Vector determining the direction of the stress field</t>
-  </si>
-  <si>
-    <t>[1,3]</t>
-  </si>
-  <si>
-    <t>[1,nkx]</t>
-  </si>
-  <si>
-    <t>[1,nky]</t>
-  </si>
-  <si>
-    <t>[1,ne]</t>
-  </si>
-  <si>
-    <t>[1,ntpp]</t>
-  </si>
-  <si>
-    <t>[1,nkx],[1,nkx]</t>
-  </si>
-  <si>
-    <t>[1,nky],[1,nky]</t>
-  </si>
-  <si>
-    <t>[1,ne],[1,ne]</t>
-  </si>
-  <si>
-    <t>[1,ntpp],[1,ntpp]</t>
-  </si>
-  <si>
-    <t>[1,nx],[1,nx]</t>
-  </si>
-  <si>
-    <t>[ndx,ndy]</t>
-  </si>
-  <si>
-    <t>[2,nsym]</t>
-  </si>
-  <si>
-    <t>[1,ncoeff]</t>
-  </si>
-  <si>
-    <t>[1,nfeat]</t>
-  </si>
-  <si>
-    <t>NXentry:NXsample:magnetic_field:\@direction</t>
-  </si>
-  <si>
-    <t>NXentry:NXsample:electric_field:\@direction</t>
-  </si>
-  <si>
-    <t>NXentry:NXinstrument:name:\@short_name</t>
-  </si>
-  <si>
-    <t>Incident polarization as a Stokes vector</t>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NXelectronanalyser:name:\@short_name</t>
-    </r>
-  </si>
-  <si>
-    <t>experiment_ title</t>
-  </si>
-  <si>
-    <t>NX _DATE_TIME</t>
-  </si>
-  <si>
-    <t>tof, hemispherical, cylindrical, mirror, retarding grid, etc.</t>
-  </si>
-  <si>
-    <t>fixed or sweep</t>
-  </si>
-  <si>
-    <t>Number of layers of the sample (e.g. bulk, monolayer, pentalayer, etc.)</t>
-  </si>
-  <si>
-    <t>Gases might be fluxed on the surface for various reasons. Chemical designation, or residual.</t>
-  </si>
-  <si>
-    <t>E.g. UHV cleave, sputtering and annealing, etc.</t>
-  </si>
-  <si>
-    <t>NXentry:NXsample:magnetic_field:\@direction </t>
-  </si>
-  <si>
-    <t xml:space="preserve">List of the axes that are acquired, in order of decreasing speed. For example energy in a swept scan or spin. </t>
-  </si>
-  <si>
-    <t>The space projected in the angularly dispersive directions, real or reciprocal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of spin detector, VLEED, SPLEED, Mott, etc. </t>
-  </si>
-  <si>
-    <t>Effective Shermann function, calibrated spin selectivity factor</t>
-  </si>
-  <si>
-    <t>Type of electron amplifier, MCP, channeltron, etc.</t>
-  </si>
-  <si>
-    <t>Description of the detector type, DLD, Phosphor+CCD, CMOS.</t>
-  </si>
-  <si>
-    <t>CAS registry number of the sample chemical content.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of manipulator, Hexapod, Rod, etc. </t>
-  </si>
-  <si>
-    <t>incident_energy_spread</t>
-  </si>
-  <si>
-    <t>FWHM energy linewidth of the incident photons.</t>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:NXbeam:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>incident_energy_spread</t>
-    </r>
-  </si>
-  <si>
-    <t>NX_NUMBER:NX_ENERGY</t>
-  </si>
-  <si>
-    <t>incident_wavelength</t>
-  </si>
-  <si>
-    <t>The center wavelength energy at sample</t>
-  </si>
-  <si>
-    <t>NXentry:NXinstrument:NXbeam:incident_wavelength</t>
-  </si>
-  <si>
-    <t>incident_wavelength_spread</t>
-  </si>
-  <si>
-    <t>FWHM wavelength linewidth of the incident photons.</t>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:NXbeam:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>incident_wavelength_spread</t>
-    </r>
-  </si>
-  <si>
-    <t>NX_NUMBER:NX_WAVELENGTH</t>
-  </si>
-  <si>
-    <t>Overall momentum resolution (FWHM)</t>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NXelectronanalyser:momentum_resolution</t>
-    </r>
-  </si>
-  <si>
-    <t>NX_FLOAT:NX_WAVEVECTOR</t>
-  </si>
-  <si>
-    <t>energy_resolution</t>
-  </si>
-  <si>
-    <t>momentum_resolution</t>
-  </si>
-  <si>
-    <t>spatial_resolution</t>
-  </si>
-  <si>
-    <t>Scheme of the electron collection lens, i.e. standard, deflector, PEEM, momentum microscope, etc.</t>
-  </si>
-  <si>
-    <t>NXentry:NXinstrument:NXelectronanalyser:NXcollectionlens:scheme</t>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:NXelectronanalyser:NXenergydispersion:energy_scan_mode</t>
-    </r>
-  </si>
-  <si>
-    <t>sensor_pixels</t>
-  </si>
-  <si>
-    <t>Number of raw active elements in each dimension. Important for swept scans.</t>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NXelectronanaliser:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NXdetector:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>sensor_pixels</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Free text description of the type of the detector </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description of the type of aperture, i.e. slit, pinhole, iris </t>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NXaperture:description</t>
-    </r>
-  </si>
-  <si>
-    <t>shape</t>
-  </si>
-  <si>
-    <t>Shape of the aperture, i.e. straight or curved for slits, circle, square hexagon, octagon, bladed for pinholes and irises.</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>The relevant dimension for the aperture, i.e. slit width, pinhole and iris diameter</t>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:NXaperture:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shape</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NXentry:NXinstrument:NXaperture:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>size</t>
-    </r>
-  </si>
-  <si>
-    <t>NX_NUMBER:NX_LENGTH</t>
+      <t>amplifier_bias</t>
+    </r>
+  </si>
+  <si>
+    <t>DEFLECTOR</t>
+  </si>
+  <si>
+    <t>deflectors in the energy dispersive section</t>
+  </si>
+  <si>
+    <t>NXentry:NXinstrument:NXelectronanalyser:NXenergydispersion:DEFLECTOR</t>
+  </si>
+  <si>
+    <t>NXdeflector</t>
+  </si>
+  <si>
+    <t>LENS</t>
+  </si>
+  <si>
+    <t>Individual lenses in the energy dispersive section</t>
+  </si>
+  <si>
+    <t>NXentry:NXinstrument:NXelectronanalyser:NXenergydispersion:LENS</t>
+  </si>
+  <si>
+    <t>NXlens</t>
+  </si>
+  <si>
+    <t>deflectors in the spin dispersive section</t>
+  </si>
+  <si>
+    <t>Individual lenses in the spin dispersive section</t>
+  </si>
+  <si>
+    <t>NXentry:NXinstrument:NXelectronanalyser:NXspindispersion:DEFLECTOR</t>
+  </si>
+  <si>
+    <t>NXentry:NXinstrument:NXelectronanalyser:NXspindispersion:LENS</t>
+  </si>
+  <si>
+    <t>deflectors in the detector section</t>
+  </si>
+  <si>
+    <t>Individual lenses in the detector section</t>
+  </si>
+  <si>
+    <t>NXentry:NXinstrument:NXelectronanalyser:NXdetector:DEFLECTOR</t>
+  </si>
+  <si>
+    <t>NXentry:NXinstrument:NXelectronanalyser:NXdetector:LENS</t>
+  </si>
+  <si>
+    <t>deflectors in the collection column section</t>
+  </si>
+  <si>
+    <t>Individual lenses in the collection column section</t>
+  </si>
+  <si>
+    <t>NXentry:NXinstrument:NXelectronanalyser:NXcollectioncolumn:DEFLECTOR</t>
+  </si>
+  <si>
+    <t>NXentry:NXinstrument:NXelectronanalyser:NXcollectioncolumn:LENS</t>
+  </si>
+  <si>
+    <t>COLLECTION_COLUMN</t>
+  </si>
+  <si>
+    <t>NXentry:NXinstrument:NXelectronanalyser:COLLECTION_COLUMN</t>
+  </si>
+  <si>
+    <t>NXcollectioncolumn</t>
+  </si>
+  <si>
+    <t>ENERGY_DISPERSION</t>
+  </si>
+  <si>
+    <t>class to describe the energy dispersion section</t>
+  </si>
+  <si>
+    <t>class to describe the electron collection (spatial and momentum imaging) column</t>
+  </si>
+  <si>
+    <t>SPIN_DISPERSION</t>
+  </si>
+  <si>
+    <t>class to describe the spin dispersion section</t>
+  </si>
+  <si>
+    <t>NXentry:NXinstrument:NXelectronanalyser:ENERGY_DISPERSION</t>
+  </si>
+  <si>
+    <t>NXenergydispersion</t>
+  </si>
+  <si>
+    <t>NXentry:NXinstrument:NXelectronanalyser:SPIN_DISPERSION</t>
+  </si>
+  <si>
+    <t>NXspindispersion</t>
+  </si>
+  <si>
+    <t>DETECTOR</t>
+  </si>
+  <si>
+    <t>class to describe the electron detector</t>
+  </si>
+  <si>
+    <t>NXentry:NXinstrument:NXelectronanalyser:DETECTOR</t>
+  </si>
+  <si>
+    <t>NXdetector</t>
+  </si>
+  <si>
+    <t>REGISTRATION</t>
+  </si>
+  <si>
+    <t>NXentry:NXprocess:REGISTRATION</t>
+  </si>
+  <si>
+    <t>NXregistration</t>
+  </si>
+  <si>
+    <t>DISTORTION</t>
+  </si>
+  <si>
+    <t>class to describe the operations of image distrortion correction</t>
+  </si>
+  <si>
+    <t>NXentry:NXprocess:DISTORTION</t>
+  </si>
+  <si>
+    <t>NXdistortion</t>
+  </si>
+  <si>
+    <t>CALIBRATION</t>
+  </si>
+  <si>
+    <t>class to describe the operations of calibration</t>
+  </si>
+  <si>
+    <t>NXentry:NXprocess:CALIBRATION</t>
+  </si>
+  <si>
+    <t>NXcalibration</t>
+  </si>
+  <si>
+    <t>Class to describe the operations of image registration</t>
+  </si>
+  <si>
+    <t>TRANSFORMATION</t>
+  </si>
+  <si>
+    <t>NXentry:NXprocess:NXregistration:TRANSFORMATION</t>
+  </si>
+  <si>
+    <t>To describe the operations of image registration (combinations of rigid translations and rotations)</t>
+  </si>
+  <si>
+    <t>NXtransformation</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>raw data output from the detector</t>
+  </si>
+  <si>
+    <t>NXentry:NXinstrument:NXelectronanalyser:NXdetector:DATA</t>
   </si>
 </sst>
 </file>
@@ -3735,9 +3893,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3761,6 +3916,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4046,19 +4204,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="22.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
@@ -4066,25 +4224,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -4099,7 +4257,7 @@
     </row>
     <row r="3" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -4112,12 +4270,12 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
+        <v>460</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4136,12 +4294,12 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
+        <v>460</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4156,16 +4314,16 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
+        <v>460</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4184,12 +4342,12 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
+        <v>460</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4208,36 +4366,36 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
+        <v>332</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
+        <v>332</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4256,12 +4414,12 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
+        <v>332</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4280,12 +4438,12 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
+        <v>332</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4304,12 +4462,12 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
+        <v>460</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4328,12 +4486,12 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
+        <v>460</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4352,12 +4510,12 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
+        <v>460</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4369,19 +4527,19 @@
         <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
+        <v>332</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4400,12 +4558,12 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
+        <v>332</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4417,19 +4575,19 @@
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
+        <v>332</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4441,19 +4599,19 @@
         <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
+        <v>332</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4465,19 +4623,19 @@
         <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
+        <v>332</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4496,12 +4654,12 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7">
+        <v>332</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4520,12 +4678,12 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7">
+        <v>332</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4539,8 +4697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4559,42 +4717,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -4605,19 +4763,19 @@
     </row>
     <row r="3" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>333</v>
+        <v>460</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -4628,19 +4786,19 @@
     </row>
     <row r="4" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -4651,20 +4809,20 @@
     </row>
     <row r="5" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -4675,20 +4833,20 @@
     </row>
     <row r="6" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>472</v>
+        <v>332</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -4699,19 +4857,19 @@
     </row>
     <row r="7" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -4722,19 +4880,19 @@
     </row>
     <row r="8" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>333</v>
+        <v>460</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -4745,19 +4903,19 @@
     </row>
     <row r="9" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -4766,17 +4924,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
+      <c r="A12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4785,23 +4980,23 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="8" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="29" style="8"/>
+    <col min="1" max="1" width="28.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="7" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="29" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -4809,208 +5004,254 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
+        <v>460</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
+        <v>460</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
+        <v>460</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
+        <v>460</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
+        <v>460</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
+        <v>460</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
+        <v>460</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
+        <v>460</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
         <v>0</v>
       </c>
     </row>
@@ -5021,16 +5262,16 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="15.44140625" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="4" width="15.44140625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -5038,191 +5279,302 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
+        <v>460</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="66" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
+        <v>460</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>244</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="66" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>287</v>
+        <v>616</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>288</v>
+        <v>617</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>532</v>
+        <v>618</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
+        <v>460</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>289</v>
+        <v>619</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>290</v>
+        <v>620</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>533</v>
+        <v>621</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="7" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>616</v>
+        <v>460</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>617</v>
+        <v>289</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>618</v>
+        <v>519</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="B9" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5239,8 +5591,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="19" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="4" width="19" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -5248,25 +5600,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
@@ -5274,237 +5626,237 @@
         <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
+        <v>332</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
+        <v>460</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
+        <v>460</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
+        <v>460</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
+        <v>460</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
+        <v>460</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
+        <v>332</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
+        <v>332</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
+        <v>460</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
+        <v>460</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>235</v>
@@ -5513,12 +5865,12 @@
         <v>229</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
+        <v>332</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5536,12 +5888,12 @@
         <v>128</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
+        <v>332</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5559,288 +5911,288 @@
         <v>128</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
+        <v>332</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
+        <v>332</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
+        <v>460</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>244</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
+        <v>332</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>244</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G18" s="7">
+        <v>332</v>
+      </c>
+      <c r="G18" s="6">
         <v>1</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>561</v>
+      <c r="H18" s="6" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7">
+        <v>332</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G20" s="7">
+        <v>332</v>
+      </c>
+      <c r="G20" s="6">
         <v>1</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>561</v>
+      <c r="H20" s="6" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7">
+        <v>332</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G22" s="7">
+        <v>332</v>
+      </c>
+      <c r="G22" s="6">
         <v>1</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>561</v>
+      <c r="H22" s="6" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0</v>
-      </c>
-      <c r="H23" s="7">
+        <v>332</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0</v>
-      </c>
-      <c r="H24" s="7">
+        <v>460</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G25" s="7">
-        <v>0</v>
-      </c>
-      <c r="H25" s="7">
+        <v>460</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G26" s="7">
-        <v>0</v>
-      </c>
-      <c r="H26" s="7">
+        <v>460</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5849,217 +6201,217 @@
         <v>236</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G27" s="7">
-        <v>0</v>
-      </c>
-      <c r="H27" s="7">
+        <v>460</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="66" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G28" s="7">
-        <v>0</v>
-      </c>
-      <c r="H28" s="7">
+        <v>460</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G29" s="7">
-        <v>0</v>
-      </c>
-      <c r="H29" s="7">
+        <v>460</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G30" s="7">
-        <v>0</v>
-      </c>
-      <c r="H30" s="7">
+        <v>332</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G31" s="7">
-        <v>0</v>
-      </c>
-      <c r="H31" s="7">
+        <v>460</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G32" s="7">
-        <v>0</v>
-      </c>
-      <c r="H32" s="7">
+        <v>460</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G33" s="7">
-        <v>0</v>
-      </c>
-      <c r="H33" s="7">
+        <v>460</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0</v>
+      </c>
+      <c r="H33" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G34" s="7">
-        <v>0</v>
-      </c>
-      <c r="H34" s="7">
+        <v>460</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G35" s="7">
-        <v>0</v>
-      </c>
-      <c r="H35" s="7">
+        <v>460</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0</v>
+      </c>
+      <c r="H35" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
+      <c r="A37" s="10"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
+      <c r="A38" s="11"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
+      <c r="A39" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6069,16 +6421,16 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="21" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="4" width="21" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -6086,328 +6438,373 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
+        <v>460</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
+        <v>460</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
+        <v>460</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
+        <v>460</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G6" s="7">
+        <v>460</v>
+      </c>
+      <c r="G6" s="6">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>391</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G7" s="7">
+        <v>460</v>
+      </c>
+      <c r="G7" s="6">
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G8" s="7">
+        <v>460</v>
+      </c>
+      <c r="G8" s="6">
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G9" s="7">
+        <v>460</v>
+      </c>
+      <c r="G9" s="6">
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="7" t="s">
-        <v>199</v>
-      </c>
+      <c r="D10" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E10" s="6"/>
       <c r="F10" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G10" s="7">
+        <v>460</v>
+      </c>
+      <c r="G10" s="6">
         <v>2</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="7" t="s">
-        <v>199</v>
-      </c>
+      <c r="D11" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E11" s="6"/>
       <c r="F11" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G11" s="7">
+        <v>460</v>
+      </c>
+      <c r="G11" s="6">
         <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="7" t="s">
-        <v>199</v>
-      </c>
+      <c r="D12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="6"/>
       <c r="F12" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G12" s="7">
+        <v>460</v>
+      </c>
+      <c r="G12" s="6">
         <v>2</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="7" t="s">
-        <v>199</v>
-      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="6"/>
       <c r="F13" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G13" s="7">
+        <v>460</v>
+      </c>
+      <c r="G13" s="6">
         <v>2</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>410</v>
+        <v>658</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="7" t="s">
-        <v>199</v>
+        <v>669</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>660</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
+        <v>460</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="4" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
         <v>0</v>
       </c>
     </row>
@@ -6421,13 +6818,13 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="21" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="4" width="21" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -6435,192 +6832,192 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>225</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
+        <v>460</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
+        <v>460</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
+        <v>460</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G5" s="7">
+        <v>460</v>
+      </c>
+      <c r="G5" s="6">
         <v>1</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>550</v>
+      <c r="H5" s="6" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G6" s="7">
+        <v>460</v>
+      </c>
+      <c r="G6" s="6">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G7" s="7">
+        <v>460</v>
+      </c>
+      <c r="G7" s="6">
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G8" s="7"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G9" s="7"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G10" s="7"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G11" s="7"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G12" s="7"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G13" s="7"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6629,16 +7026,16 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="19.44140625" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="4" width="19.44140625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -6646,186 +7043,140 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>225</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
+        <v>460</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
+        <v>460</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>440</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G5" s="7">
+        <v>460</v>
+      </c>
+      <c r="G5" s="6">
         <v>1</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="H5" s="6" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>441</v>
+        <v>670</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>304</v>
+        <v>672</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>671</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>673</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>550</v>
+        <v>332</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6843,8 +7194,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="18.33203125" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="4" width="18.33203125" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -6852,185 +7203,185 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>225</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
+        <v>460</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G3" s="7">
+        <v>460</v>
+      </c>
+      <c r="G3" s="6">
         <v>1</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>573</v>
+      <c r="H3" s="6" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G4" s="7">
+        <v>460</v>
+      </c>
+      <c r="G4" s="6">
         <v>1</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>574</v>
+      <c r="H4" s="6" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G5" s="7">
+        <v>460</v>
+      </c>
+      <c r="G5" s="6">
         <v>1</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>574</v>
+      <c r="H5" s="6" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G6" s="7">
+        <v>460</v>
+      </c>
+      <c r="G6" s="6">
         <v>1</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>574</v>
+      <c r="H6" s="6" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
+        <v>460</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
+        <v>460</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7049,12 +7400,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="14" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="14"/>
+    <col min="1" max="1" width="15.44140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="28.21875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -7062,43 +7413,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="13" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="12" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -7108,48 +7459,48 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>622</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="A3" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="G3" s="14">
-        <v>0</v>
-      </c>
-      <c r="H3" s="14">
+      <c r="F3" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>627</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>628</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="G4" s="14">
-        <v>0</v>
-      </c>
-      <c r="H4" s="14">
+      <c r="A4" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
         <v>0</v>
       </c>
     </row>
@@ -7169,13 +7520,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="16" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -7183,25 +7534,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
@@ -7219,12 +7570,12 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
+        <v>332</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7243,12 +7594,12 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
+        <v>332</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7267,12 +7618,12 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
+        <v>332</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7291,12 +7642,12 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
+        <v>332</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7315,12 +7666,12 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
+        <v>332</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7339,12 +7690,12 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
+        <v>332</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7363,12 +7714,12 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
+        <v>332</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7388,13 +7739,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="23.109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -7402,25 +7753,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
@@ -7436,38 +7787,38 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
+        <v>332</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
+        <v>332</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7484,14 +7835,14 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
+        <v>460</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7510,14 +7861,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="22.109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="7"/>
-    <col min="8" max="8" width="12.44140625" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="17.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="22.109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="6"/>
+    <col min="8" max="8" width="12.44140625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -7525,25 +7876,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
@@ -7560,12 +7911,12 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
+        <v>332</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7577,18 +7928,18 @@
         <v>86</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
+        <v>332</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7600,18 +7951,18 @@
         <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
+        <v>332</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7629,12 +7980,12 @@
         <v>77</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
+        <v>460</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7652,12 +8003,12 @@
         <v>95</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
+        <v>460</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7675,12 +8026,12 @@
         <v>77</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
+        <v>460</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7698,35 +8049,35 @@
         <v>102</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
+        <v>460</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
+        <v>332</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7744,12 +8095,12 @@
         <v>107</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
+        <v>332</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7767,12 +8118,12 @@
         <v>111</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
+        <v>332</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7790,12 +8141,12 @@
         <v>79</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
+        <v>332</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7813,12 +8164,12 @@
         <v>79</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
+        <v>332</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7836,12 +8187,12 @@
         <v>121</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
+        <v>332</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7859,12 +8210,12 @@
         <v>77</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
+        <v>332</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7882,12 +8233,12 @@
         <v>128</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
+        <v>332</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7905,12 +8256,12 @@
         <v>132</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
+        <v>332</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7928,12 +8279,12 @@
         <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
+        <v>332</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7952,13 +8303,13 @@
         <v>199</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G19" s="7">
+        <v>332</v>
+      </c>
+      <c r="G19" s="6">
         <v>2</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>570</v>
+      <c r="H19" s="6" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
@@ -7975,12 +8326,12 @@
         <v>142</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7">
+        <v>332</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7998,12 +8349,12 @@
         <v>16</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7">
+        <v>332</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8021,12 +8372,12 @@
         <v>16</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
+        <v>332</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8044,12 +8395,12 @@
         <v>5</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0</v>
-      </c>
-      <c r="H23" s="7">
+        <v>332</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8067,12 +8418,12 @@
         <v>155</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0</v>
-      </c>
-      <c r="H24" s="7">
+        <v>332</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8091,13 +8442,13 @@
         <v>199</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G25" s="7">
+        <v>332</v>
+      </c>
+      <c r="G25" s="6">
         <v>2</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>570</v>
+      <c r="H25" s="6" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="66" x14ac:dyDescent="0.25">
@@ -8114,12 +8465,12 @@
         <v>16</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G26" s="7">
-        <v>0</v>
-      </c>
-      <c r="H26" s="7">
+        <v>332</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8137,12 +8488,12 @@
         <v>142</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G27" s="7">
-        <v>0</v>
-      </c>
-      <c r="H27" s="7">
+        <v>460</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8160,12 +8511,12 @@
         <v>142</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G28" s="7">
-        <v>0</v>
-      </c>
-      <c r="H28" s="7">
+        <v>460</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8185,14 +8536,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="7"/>
-    <col min="8" max="8" width="14" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="2" width="14.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="6"/>
+    <col min="8" max="8" width="14" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -8200,25 +8551,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
@@ -8235,12 +8586,12 @@
         <v>79</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
+        <v>332</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8258,12 +8609,12 @@
         <v>77</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
+        <v>460</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8281,151 +8632,151 @@
         <v>102</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
+        <v>460</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
+        <v>332</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
+        <v>460</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
+        <v>332</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
+        <v>332</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G9" s="7">
+        <v>332</v>
+      </c>
+      <c r="G9" s="6">
         <v>1</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>549</v>
+      <c r="H9" s="6" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G10" s="7">
+        <v>332</v>
+      </c>
+      <c r="G10" s="6">
         <v>1</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>550</v>
+      <c r="H10" s="6" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
@@ -8442,12 +8793,12 @@
         <v>179</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
+        <v>460</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8465,12 +8816,12 @@
         <v>16</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
+        <v>460</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8489,13 +8840,13 @@
         <v>199</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G13" s="7">
+        <v>460</v>
+      </c>
+      <c r="G13" s="6">
         <v>2</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>570</v>
+      <c r="H13" s="6" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
@@ -8512,12 +8863,12 @@
         <v>5</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
+        <v>460</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8535,12 +8886,12 @@
         <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
+        <v>460</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8549,21 +8900,21 @@
         <v>118</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>121</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
+        <v>332</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8583,10 +8934,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="16.5546875" style="8" customWidth="1"/>
-    <col min="5" max="7" width="8.88671875" style="8"/>
-    <col min="8" max="8" width="11" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="4" width="16.5546875" style="7" customWidth="1"/>
+    <col min="5" max="7" width="8.88671875" style="7"/>
+    <col min="8" max="8" width="11" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -8594,25 +8945,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
@@ -8629,12 +8980,12 @@
         <v>77</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
+        <v>332</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8652,12 +9003,12 @@
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
+        <v>332</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8676,13 +9027,13 @@
         <v>199</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G4" s="7">
+        <v>332</v>
+      </c>
+      <c r="G4" s="6">
         <v>2</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>570</v>
+      <c r="H4" s="6" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -8694,14 +9045,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="15.88671875" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="4" width="15.88671875" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -8709,25 +9060,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
@@ -8744,12 +9095,12 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
+        <v>332</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8767,12 +9118,12 @@
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
+        <v>332</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8781,7 +9132,7 @@
         <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>203</v>
@@ -8790,12 +9141,12 @@
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
+        <v>460</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8813,12 +9164,12 @@
         <v>79</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
+        <v>460</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8836,12 +9187,12 @@
         <v>79</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
+        <v>460</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8859,12 +9210,12 @@
         <v>79</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
+        <v>460</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8882,12 +9233,12 @@
         <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
+        <v>460</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8905,12 +9256,12 @@
         <v>219</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
+        <v>460</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8928,12 +9279,12 @@
         <v>219</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
+        <v>460</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8951,12 +9302,12 @@
         <v>225</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
+        <v>460</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8974,12 +9325,12 @@
         <v>229</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
+        <v>460</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8997,12 +9348,12 @@
         <v>102</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
+        <v>460</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
         <v>0</v>
       </c>
     </row>
@@ -9020,12 +9371,12 @@
         <v>229</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
+        <v>460</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
         <v>0</v>
       </c>
     </row>
@@ -9043,12 +9394,12 @@
         <v>128</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
+        <v>460</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
         <v>0</v>
       </c>
     </row>
@@ -9066,12 +9417,12 @@
         <v>128</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
+        <v>460</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
         <v>0</v>
       </c>
     </row>
@@ -9082,22 +9433,22 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="27.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" style="10" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="10" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="8"/>
-    <col min="9" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="18.44140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" style="9" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="9" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="7"/>
+    <col min="9" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -9105,25 +9456,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
@@ -9131,22 +9482,22 @@
         <v>201</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
+        <v>460</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
         <v>0</v>
       </c>
     </row>
@@ -9158,213 +9509,285 @@
         <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
+        <v>460</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
+        <v>460</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
+        <v>460</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
+        <v>460</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>484</v>
-      </c>
       <c r="B9" s="1" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G9" s="7">
+        <v>460</v>
+      </c>
+      <c r="G9" s="6">
         <v>1</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>555</v>
+      <c r="H9" s="6" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>485</v>
+      <c r="A10" s="9" t="s">
+        <v>473</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G10" s="7">
+        <v>460</v>
+      </c>
+      <c r="G10" s="6">
         <v>1</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="H10" s="6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9376,20 +9799,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" style="8"/>
-    <col min="4" max="4" width="29.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="8" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="33" style="8"/>
+    <col min="1" max="1" width="17.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="7"/>
+    <col min="4" max="4" width="29.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="7" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="33" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -9397,43 +9820,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -9450,19 +9873,19 @@
         <v>243</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
+        <v>460</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
         <v>0</v>
       </c>
     </row>
@@ -9474,19 +9897,19 @@
         <v>246</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
+        <v>460</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
         <v>0</v>
       </c>
     </row>
@@ -9498,209 +9921,247 @@
         <v>248</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
+        <v>460</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>498</v>
+        <v>615</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
+        <v>332</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G7" s="7">
+        <v>460</v>
+      </c>
+      <c r="G7" s="6">
         <v>1</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>554</v>
+      <c r="H7" s="6" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G8" s="7">
+        <v>460</v>
+      </c>
+      <c r="G8" s="6">
         <v>1</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>554</v>
+      <c r="H8" s="6" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
+        <v>460</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
+        <v>460</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="9" t="s">
-        <v>505</v>
+      <c r="E11" s="8" t="s">
+        <v>491</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
+        <v>332</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="9" t="s">
-        <v>505</v>
+      <c r="E12" s="8" t="s">
+        <v>491</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+        <v>332</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>641</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
